--- a/biology/Zoologie/Bayannurosaurus/Bayannurosaurus.xlsx
+++ b/biology/Zoologie/Bayannurosaurus/Bayannurosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bayannurosaurus perfectus
 Bayannurosaurus est un  genre fossile de dinosaures iguanodontes, un ornithopode du clade des ankylopollexiens.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fossile parfaitement conservé a été découvert dans la formation de Bayin-Gobi, dans la région autonome de Mongolie-Intérieure en Chine, près de la ville-préfecture de Bayannuur qui lui a donné son nom. Il provient d'un niveau stratigraphique daté de l'Aptien (Crétacé inférieur), soit il y a environ entre ≃121,4 et ≃113,0 millions d'années.
-Bayannurosaurus avait une longueur totale d'environ 9 mètres avec un crâne de 80 centimètres de long, ce qui en faisait un iguanodonte de taille moyenne[1].
+Bayannurosaurus avait une longueur totale d'environ 9 mètres avec un crâne de 80 centimètres de long, ce qui en faisait un iguanodonte de taille moyenne.
 Cet iguanodonte devait avoir une démarche essentiellement quadrupède.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique conduite par les inventeurs du genre le place juste en amont des Hadrosauriformes, comme plus dérivé que Hypselospinus mais moins que Ouranosaurus. C'est un ankylopollexien basal[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique conduite par les inventeurs du genre le place juste en amont des Hadrosauriformes, comme plus dérivé que Hypselospinus mais moins que Ouranosaurus. C'est un ankylopollexien basal.
 </t>
         </is>
       </c>
